--- a/scimagojr/scimagojr_1996.xlsx
+++ b/scimagojr/scimagojr_1996.xlsx
@@ -140,12 +140,12 @@
     <t>Norway</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
@@ -260,24 +260,24 @@
     <t>Bangladesh</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -290,12 +290,12 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
@@ -317,12 +317,12 @@
     <t>Azerbaijan</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>Moldova</t>
   </si>
   <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
@@ -374,18 +374,18 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -428,12 +428,12 @@
     <t>New Caledonia</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -446,12 +446,12 @@
     <t>Congo</t>
   </si>
   <si>
+    <t>Gabon</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -467,12 +467,12 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -488,18 +488,21 @@
     <t>Fiji</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Togo</t>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Palestine</t>
   </si>
   <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -512,9 +515,6 @@
     <t>Burundi</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>French Guiana</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Lesotho</t>
@@ -533,12 +533,12 @@
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
@@ -551,22 +551,25 @@
     <t>Turkmenistan</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
     <t>Maldives</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Virgin Islands (U.S.)</t>
@@ -575,27 +578,24 @@
     <t>Mauritania</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -608,112 +608,112 @@
     <t>Haïti</t>
   </si>
   <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Bahamas</t>
+    <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>Chad</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Liberia</t>
   </si>
   <si>
     <t>Andorra</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Palau</t>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
     <t>Kiribati</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
   </si>
 </sst>
 </file>
@@ -857,22 +857,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>361032</v>
+        <v>363066</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>350675</v>
+        <v>352894</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>15018075</v>
+        <v>15977965</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>6753775</v>
+        <v>7067121</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>41.6</v>
+        <v>44.01</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -886,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>92087</v>
+        <v>92424</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>86460</v>
+        <v>86784</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3214893</v>
+        <v>3414712</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>701847</v>
+        <v>728427</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>34.91</v>
+        <v>36.95</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -915,22 +915,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>90657</v>
+        <v>90995</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>89441</v>
+        <v>89817</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2007544</v>
+        <v>2109846</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>555978</v>
+        <v>569606</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>22.14</v>
+        <v>23.19</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -944,22 +944,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>77403</v>
+        <v>77551</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>75933</v>
+        <v>76116</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2436126</v>
+        <v>2607177</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>568590</v>
+        <v>588296</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>31.47</v>
+        <v>33.62</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -973,22 +973,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>56523</v>
+        <v>56623</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>55203</v>
+        <v>55329</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1766033</v>
+        <v>1865217</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>361519</v>
+        <v>371759</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>31.24</v>
+        <v>32.94</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1002,22 +1002,22 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>43592</v>
+        <v>43740</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>42660</v>
+        <v>42829</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1711382</v>
+        <v>1821576</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>280829</v>
+        <v>291305</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>39.26</v>
+        <v>41.65</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1031,22 +1031,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>40387</v>
+        <v>40429</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>39122</v>
+        <v>39193</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1093265</v>
+        <v>1155049</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>230879</v>
+        <v>239113</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>27.07</v>
+        <v>28.57</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1060,22 +1060,22 @@
         <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>32388</v>
+        <v>32416</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>32243</v>
+        <v>32275</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>327204</v>
+        <v>346193</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>94692</v>
+        <v>98753</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>10.1</v>
+        <v>10.68</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1089,22 +1089,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>30859</v>
+        <v>30885</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>30744</v>
+        <v>30776</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>303235</v>
+        <v>322582</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>127576</v>
+        <v>136053</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>9.83</v>
+        <v>10.44</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1118,22 +1118,22 @@
         <v>23</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>25692</v>
+        <v>25745</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>24800</v>
+        <v>24863</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>851519</v>
+        <v>907258</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>161194</v>
+        <v>167596</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>33.14</v>
+        <v>35.24</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1147,22 +1147,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>25110</v>
+        <v>25141</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>24380</v>
+        <v>24420</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>629112</v>
+        <v>663495</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>144945</v>
+        <v>148946</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>25.05</v>
+        <v>26.39</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1176,22 +1176,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>23317</v>
+        <v>23378</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>22744</v>
+        <v>22813</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>936481</v>
+        <v>994203</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>132208</v>
+        <v>135661</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>40.16</v>
+        <v>42.53</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1205,22 +1205,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>21513</v>
+        <v>21512</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>21081</v>
+        <v>21094</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>332694</v>
+        <v>355956</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>113575</v>
+        <v>121515</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15.46</v>
+        <v>16.55</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1234,22 +1234,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>16904</v>
+        <v>16918</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>16594</v>
+        <v>16622</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>683226</v>
+        <v>721516</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>103071</v>
+        <v>105462</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>40.42</v>
+        <v>42.65</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1263,22 +1263,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>15828</v>
+        <v>15868</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>15489</v>
+        <v>15532</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>682027</v>
+        <v>717191</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>77668</v>
+        <v>79570</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>43.09</v>
+        <v>45.2</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1292,22 +1292,22 @@
         <v>20</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>12369</v>
+        <v>12384</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>12295</v>
+        <v>12313</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>188167</v>
+        <v>198565</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>48345</v>
+        <v>49635</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>15.21</v>
+        <v>16.03</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1321,22 +1321,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>11712</v>
+        <v>11735</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11422</v>
+        <v>11446</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>402522</v>
+        <v>427726</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>47381</v>
+        <v>48591</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>34.37</v>
+        <v>36.45</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1350,22 +1350,22 @@
         <v>32</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10977</v>
+        <v>11010</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>10692</v>
+        <v>10720</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>388525</v>
+        <v>413641</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>47494</v>
+        <v>48961</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>35.39</v>
+        <v>37.57</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1379,22 +1379,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10910</v>
+        <v>10935</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10807</v>
+        <v>10839</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>215414</v>
+        <v>227707</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>37928</v>
+        <v>38584</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>19.74</v>
+        <v>20.82</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1408,22 +1408,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10429</v>
+        <v>10486</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>10344</v>
+        <v>10403</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>196598</v>
+        <v>208031</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>33817</v>
+        <v>34748</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>18.85</v>
+        <v>19.84</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1437,22 +1437,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>9214</v>
+        <v>9239</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>9094</v>
+        <v>9119</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>188872</v>
+        <v>199769</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>58445</v>
+        <v>60966</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>20.5</v>
+        <v>21.62</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1466,22 +1466,22 @@
         <v>12</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>8289</v>
+        <v>8304</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>8101</v>
+        <v>8124</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>333428</v>
+        <v>352501</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>43602</v>
+        <v>44779</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>40.23</v>
+        <v>42.45</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1495,22 +1495,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8149</v>
+        <v>8172</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>7937</v>
+        <v>7965</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>282965</v>
+        <v>300453</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>42022</v>
+        <v>43158</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>34.72</v>
+        <v>36.77</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1524,22 +1524,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>7798</v>
+        <v>7826</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>7621</v>
+        <v>7648</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>328016</v>
+        <v>372387</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>30977</v>
+        <v>32006</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>42.06</v>
+        <v>47.58</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1553,22 +1553,22 @@
         <v>12</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6159</v>
+        <v>6168</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>6041</v>
+        <v>6050</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>198692</v>
+        <v>211011</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>30104</v>
+        <v>31165</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>32.26</v>
+        <v>34.21</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1579,25 +1579,25 @@
         <v>41</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5826</v>
+        <v>5833</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>5818</v>
+        <v>5644</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>38874</v>
+        <v>91994</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>10011</v>
+        <v>22985</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>6.67</v>
+        <v>15.77</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>323</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1608,25 +1608,25 @@
         <v>42</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>5821</v>
+        <v>5827</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>5628</v>
+        <v>5819</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>86204</v>
+        <v>41329</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>22024</v>
+        <v>10433</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>14.81</v>
+        <v>7.09</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>535</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1640,22 +1640,22 @@
         <v>20</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5466</v>
+        <v>5475</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>5437</v>
+        <v>5448</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>84320</v>
+        <v>88673</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>18648</v>
+        <v>19092</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>15.43</v>
+        <v>16.2</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1669,22 +1669,22 @@
         <v>12</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5185</v>
+        <v>5191</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>5094</v>
+        <v>5102</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>116412</v>
+        <v>123333</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>20090</v>
+        <v>20763</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>22.45</v>
+        <v>23.76</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1698,22 +1698,22 @@
         <v>23</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4963</v>
+        <v>4968</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>4850</v>
+        <v>4857</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>181353</v>
+        <v>194445</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>24635</v>
+        <v>25567</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>36.54</v>
+        <v>39.14</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1727,22 +1727,22 @@
         <v>36</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4929</v>
+        <v>4937</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>4877</v>
+        <v>4887</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>100315</v>
+        <v>106694</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>20966</v>
+        <v>21954</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>20.35</v>
+        <v>21.61</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1756,22 +1756,22 @@
         <v>48</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>4768</v>
+        <v>4819</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>4644</v>
+        <v>4690</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>98565</v>
+        <v>105365</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>20465</v>
+        <v>21612</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>20.67</v>
+        <v>21.86</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1785,22 +1785,22 @@
         <v>20</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>4734</v>
+        <v>4751</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>4616</v>
+        <v>4634</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>92144</v>
+        <v>97417</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>16484</v>
+        <v>16998</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>19.46</v>
+        <v>20.5</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1814,22 +1814,22 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>4591</v>
+        <v>4609</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>4474</v>
+        <v>4495</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>125506</v>
+        <v>136524</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>15000</v>
+        <v>15290</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>27.34</v>
+        <v>29.62</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1843,22 +1843,22 @@
         <v>36</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4253</v>
+        <v>4267</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>4189</v>
+        <v>4204</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>85894</v>
+        <v>91313</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>19698</v>
+        <v>20495</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1872,22 +1872,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3087</v>
+        <v>3098</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>3026</v>
+        <v>3038</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>72333</v>
+        <v>77498</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>7203</v>
+        <v>7378</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>23.43</v>
+        <v>25.02</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1901,22 +1901,22 @@
         <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>41920</v>
+        <v>44836</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>7839</v>
+        <v>8231</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>14.24</v>
+        <v>15.22</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1930,22 +1930,22 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2819</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>65451</v>
+        <v>69491</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>12760</v>
+        <v>13183</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>22.89</v>
+        <v>24.31</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1959,22 +1959,22 @@
         <v>12</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2847</v>
+        <v>2856</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2724</v>
+        <v>2736</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>82830</v>
+        <v>87780</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>7736</v>
+        <v>7975</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>29.09</v>
+        <v>30.74</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1988,22 +1988,22 @@
         <v>20</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2639</v>
+        <v>2644</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2613</v>
+        <v>2618</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>36000</v>
+        <v>37826</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>7391</v>
+        <v>7525</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>13.64</v>
+        <v>14.31</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2017,22 +2017,22 @@
         <v>20</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2357</v>
+        <v>2366</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2341</v>
+        <v>2350</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>32719</v>
+        <v>34849</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4928</v>
+        <v>5116</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>13.88</v>
+        <v>14.73</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2046,22 +2046,22 @@
         <v>20</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>23040</v>
+        <v>24317</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>5115</v>
+        <v>5256</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>10.27</v>
+        <v>10.82</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2075,22 +2075,22 @@
         <v>32</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2056</v>
+        <v>2061</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>29685</v>
+        <v>32059</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>3874</v>
+        <v>4089</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>14.44</v>
+        <v>15.56</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2104,22 +2104,22 @@
         <v>20</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>18414</v>
+        <v>19394</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>4143</v>
+        <v>4254</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>10.2</v>
+        <v>10.73</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2133,22 +2133,22 @@
         <v>36</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>44177</v>
+        <v>46906</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>7842</v>
+        <v>8138</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>24.69</v>
+        <v>26.19</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2162,22 +2162,22 @@
         <v>20</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>25803</v>
+        <v>27434</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>4583</v>
+        <v>4755</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>17.55</v>
+        <v>18.62</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2191,22 +2191,22 @@
         <v>20</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>9831</v>
+        <v>10124</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1985</v>
+        <v>2021</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>7.22</v>
+        <v>7.43</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2220,22 +2220,22 @@
         <v>14</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1243</v>
+        <v>1273</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1218</v>
+        <v>1251</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>30126</v>
+        <v>32207</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>4393</v>
+        <v>4632</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>24.24</v>
+        <v>25.3</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2255,16 +2255,16 @@
         <v>1187</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>13661</v>
+        <v>14773</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>3156</v>
+        <v>3342</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>11.43</v>
+        <v>12.36</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2278,22 +2278,22 @@
         <v>14</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1066</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>20563</v>
+        <v>22399</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3475</v>
+        <v>3728</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>18.83</v>
+        <v>20.53</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2313,16 +2313,16 @@
         <v>1047</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>19125</v>
+        <v>20275</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2514</v>
+        <v>2553</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>18.06</v>
+        <v>19.15</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2336,22 +2336,22 @@
         <v>14</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>915</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>11061</v>
+        <v>11846</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>2493</v>
+        <v>2620</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>11.91</v>
+        <v>12.77</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2371,16 +2371,16 @@
         <v>868</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>8235</v>
+        <v>8768</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1063</v>
+        <v>1134</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>9.43</v>
+        <v>10.04</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2394,22 +2394,22 @@
         <v>32</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>840</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>14418</v>
+        <v>15452</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4729</v>
+        <v>4919</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>16.94</v>
+        <v>18.14</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2423,22 +2423,22 @@
         <v>48</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>14373</v>
+        <v>15286</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2124</v>
+        <v>2289</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>17.36</v>
+        <v>18.44</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2458,16 +2458,16 @@
         <v>796</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>10640</v>
+        <v>11248</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>2082</v>
+        <v>2114</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>13.32</v>
+        <v>14.08</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2481,22 +2481,22 @@
         <v>48</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>19942</v>
+        <v>21100</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2756</v>
+        <v>2836</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>30.77</v>
+        <v>32.61</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2510,22 +2510,22 @@
         <v>32</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>9779</v>
+        <v>10533</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1310</v>
+        <v>1362</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>15.85</v>
+        <v>17.04</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2539,22 +2539,22 @@
         <v>14</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>15228</v>
+        <v>16432</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1554</v>
+        <v>1749</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>24.84</v>
+        <v>26.72</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2574,16 +2574,16 @@
         <v>586</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>14709</v>
+        <v>15527</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2434</v>
+        <v>2484</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>24.76</v>
+        <v>26.14</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2603,16 +2603,16 @@
         <v>579</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>13773</v>
+        <v>14501</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1498</v>
+        <v>1588</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2626,22 +2626,22 @@
         <v>20</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>8034</v>
+        <v>8460</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1266</v>
+        <v>1341</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>14.09</v>
+        <v>14.44</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2655,22 +2655,22 @@
         <v>14</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>9243</v>
+        <v>9942</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1312</v>
+        <v>1395</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>17.18</v>
+        <v>18.41</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2681,25 +2681,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>16108</v>
+        <v>18803</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1553</v>
+        <v>1026</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>34.42</v>
+        <v>40.01</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2710,25 +2710,25 @@
         <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>467</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>17782</v>
+        <v>17346</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1002</v>
+        <v>1625</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>38.08</v>
+        <v>37.14</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2742,22 +2742,22 @@
         <v>48</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>5562</v>
+        <v>6043</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1332</v>
+        <v>1415</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>12.2</v>
+        <v>13.22</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2777,16 +2777,16 @@
         <v>449</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>6538</v>
+        <v>7096</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>900</v>
+        <v>954</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>14.53</v>
+        <v>15.77</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2797,25 +2797,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>418</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>3974</v>
+        <v>8311</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>571</v>
+        <v>662</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>9.51</v>
+        <v>19.88</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>214</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2826,25 +2826,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>7675</v>
+        <v>4204</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>18.45</v>
+        <v>10.46</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2858,22 +2858,22 @@
         <v>14</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1483</v>
+        <v>1607</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>3.74</v>
+        <v>4.04</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2887,22 +2887,22 @@
         <v>20</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>390</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>4969</v>
+        <v>5232</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>12.64</v>
+        <v>13.35</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2916,22 +2916,22 @@
         <v>48</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>5736</v>
+        <v>6092</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>848</v>
+        <v>918</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>15.5</v>
+        <v>16.42</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2945,22 +2945,22 @@
         <v>48</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>6504</v>
+        <v>6948</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>18.42</v>
+        <v>19.63</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2971,25 +2971,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>323</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>4268</v>
+        <v>17677</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>545</v>
+        <v>1499</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>13.21</v>
+        <v>54.73</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>219</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3000,25 +3000,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>16721</v>
+        <v>4498</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1400</v>
+        <v>563</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>51.77</v>
+        <v>14.01</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>370</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3035,19 +3035,19 @@
         <v>298</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>6381</v>
+        <v>6778</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>975</v>
+        <v>1024</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>21.41</v>
+        <v>22.74</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3061,22 +3061,22 @@
         <v>32</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>5915</v>
+        <v>6342</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>21.75</v>
+        <v>23.23</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3096,16 +3096,16 @@
         <v>265</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>8135</v>
+        <v>8551</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1073</v>
+        <v>1106</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>30.02</v>
+        <v>31.55</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3119,22 +3119,22 @@
         <v>36</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>6252</v>
+        <v>6642</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>23.42</v>
+        <v>24.6</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3148,22 +3148,22 @@
         <v>48</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>5787</v>
+        <v>6252</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1090</v>
+        <v>1200</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>21.76</v>
+        <v>23.59</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3183,16 +3183,16 @@
         <v>256</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>2608</v>
+        <v>2776</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>10.11</v>
+        <v>10.76</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3206,22 +3206,22 @@
         <v>20</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1058</v>
+        <v>1115</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>4.22</v>
+        <v>4.42</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3232,25 +3232,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>246</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1582</v>
+        <v>7323</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>297</v>
+        <v>1015</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>6.43</v>
+        <v>29.77</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>135</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3261,25 +3261,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>6844</v>
+        <v>1656</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>947</v>
+        <v>300</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>28.16</v>
+        <v>6.73</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3299,16 +3299,16 @@
         <v>234</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>4358</v>
+        <v>4592</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>18.39</v>
+        <v>19.38</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3322,22 +3322,22 @@
         <v>14</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>3400</v>
+        <v>3659</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>15.11</v>
+        <v>16.19</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3351,22 +3351,22 @@
         <v>36</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>4458</v>
+        <v>4853</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>21.64</v>
+        <v>23.44</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3380,22 +3380,22 @@
         <v>48</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>3756</v>
+        <v>3999</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>19.07</v>
+        <v>20.2</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3415,16 +3415,16 @@
         <v>181</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3298</v>
+        <v>3518</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>18.12</v>
+        <v>19.33</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3444,16 +3444,16 @@
         <v>177</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>3083</v>
+        <v>3561</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>17.22</v>
+        <v>19.89</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3473,16 +3473,16 @@
         <v>174</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>3930</v>
+        <v>4145</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>22.08</v>
+        <v>23.29</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3496,22 +3496,22 @@
         <v>12</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>5603</v>
+        <v>6093</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>35.46</v>
+        <v>37.84</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3525,22 +3525,22 @@
         <v>48</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>3510</v>
+        <v>3731</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>24.55</v>
+        <v>25.73</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3560,16 +3560,16 @@
         <v>134</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1975</v>
+        <v>2104</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>14.52</v>
+        <v>15.47</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3583,22 +3583,22 @@
         <v>32</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>7.06</v>
+        <v>7.38</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3612,22 +3612,22 @@
         <v>20</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>2803</v>
+        <v>2943</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>24.16</v>
+        <v>24.73</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3647,16 +3647,16 @@
         <v>112</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>2186</v>
+        <v>2398</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19.01</v>
+        <v>20.85</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3670,22 +3670,22 @@
         <v>32</v>
       </c>
       <c r="D99" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E99" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>113</v>
-      </c>
       <c r="F99" s="0" t="n">
-        <v>3781</v>
+        <v>4030</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>292</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>33.17</v>
+        <v>35.04</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3705,16 +3705,16 @@
         <v>112</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1641</v>
+        <v>1734</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>14.65</v>
+        <v>15.48</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3734,16 +3734,16 @@
         <v>109</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5420</v>
+        <v>5727</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>49.27</v>
+        <v>52.06</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3763,16 +3763,16 @@
         <v>107</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1704</v>
+        <v>1811</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>15.63</v>
+        <v>16.61</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3789,19 +3789,19 @@
         <v>102</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>4325</v>
+        <v>1904</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>42.4</v>
+        <v>18.67</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3821,16 +3821,16 @@
         <v>99</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1947</v>
+        <v>2089</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>19.09</v>
+        <v>20.48</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3841,25 +3841,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>3092</v>
+        <v>4602</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>30.61</v>
+        <v>45.12</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3870,25 +3870,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>101</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1730</v>
+        <v>3252</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>17.13</v>
+        <v>32.2</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3908,16 +3908,16 @@
         <v>96</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>914</v>
+        <v>1019</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>9.52</v>
+        <v>10.61</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3937,16 +3937,16 @@
         <v>85</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1161</v>
+        <v>1237</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>12.9</v>
+        <v>13.74</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3966,16 +3966,16 @@
         <v>83</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1250</v>
+        <v>1310</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>87</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>14.2</v>
+        <v>14.89</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3995,16 +3995,16 @@
         <v>77</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1028</v>
+        <v>1094</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>13.18</v>
+        <v>14.03</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4024,16 +4024,16 @@
         <v>69</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2857</v>
+        <v>3004</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>37.59</v>
+        <v>39.53</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4047,22 +4047,22 @@
         <v>32</v>
       </c>
       <c r="D112" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E112" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E112" s="0" t="n">
-        <v>69</v>
-      </c>
       <c r="F112" s="0" t="n">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>9.49</v>
+        <v>10.23</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4082,16 +4082,16 @@
         <v>68</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>13.77</v>
+        <v>14.86</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4111,16 +4111,16 @@
         <v>67</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>1815</v>
+        <v>1951</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>27.09</v>
+        <v>29.12</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4134,22 +4134,22 @@
         <v>48</v>
       </c>
       <c r="D115" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E115" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E115" s="0" t="n">
-        <v>63</v>
-      </c>
       <c r="F115" s="0" t="n">
-        <v>1559</v>
+        <v>1650</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>24.36</v>
+        <v>25.38</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4169,16 +4169,16 @@
         <v>62</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1147</v>
+        <v>1232</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>18.21</v>
+        <v>19.56</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4198,16 +4198,16 @@
         <v>61</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>1835</v>
+        <v>1957</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>29.6</v>
+        <v>31.56</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4227,16 +4227,16 @@
         <v>59</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>15.89</v>
+        <v>17.13</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4256,16 +4256,16 @@
         <v>60</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>596</v>
+        <v>650</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>9.93</v>
+        <v>10.83</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4285,16 +4285,16 @@
         <v>57</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2472</v>
+        <v>2633</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>42.62</v>
+        <v>45.4</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4305,25 +4305,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>55</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>112</v>
+        <v>1590</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>2.04</v>
+        <v>28.91</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>58</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4334,25 +4334,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>55</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1457</v>
+        <v>119</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>26.49</v>
+        <v>2.16</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>165</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4372,16 +4372,16 @@
         <v>54</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>13.52</v>
+        <v>14.33</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4401,16 +4401,16 @@
         <v>51</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>1161</v>
+        <v>1236</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>21.91</v>
+        <v>23.32</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4430,16 +4430,16 @@
         <v>45</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1006</v>
+        <v>1118</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>21.87</v>
+        <v>24.3</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4459,16 +4459,16 @@
         <v>44</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1102</v>
+        <v>1148</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>39</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>24.49</v>
+        <v>25.51</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4479,25 +4479,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2043</v>
+        <v>1378</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>45.4</v>
+        <v>30.62</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4508,25 +4508,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>1316</v>
+        <v>2196</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>29.24</v>
+        <v>48.8</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4546,16 +4546,16 @@
         <v>40</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>11.41</v>
+        <v>11.95</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4575,16 +4575,16 @@
         <v>43</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1604</v>
+        <v>1750</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>37.3</v>
+        <v>40.7</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4604,16 +4604,16 @@
         <v>42</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1598</v>
+        <v>1705</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>37.16</v>
+        <v>39.65</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4633,16 +4633,16 @@
         <v>42</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1997</v>
+        <v>2112</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>47.55</v>
+        <v>50.29</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4662,16 +4662,16 @@
         <v>38</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>18.92</v>
+        <v>20.74</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4682,25 +4682,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1941</v>
+        <v>780</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>51.08</v>
+        <v>20.53</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4711,25 +4711,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>744</v>
+        <v>2067</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>19.58</v>
+        <v>54.39</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4749,16 +4749,16 @@
         <v>35</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1062</v>
+        <v>1113</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>56</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>29.5</v>
+        <v>30.92</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4772,22 +4772,22 @@
         <v>23</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1162</v>
+        <v>1235</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>33.2</v>
+        <v>34.31</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4801,22 +4801,22 @@
         <v>32</v>
       </c>
       <c r="D138" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E138" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E138" s="0" t="n">
-        <v>33</v>
-      </c>
       <c r="F138" s="0" t="n">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>18.12</v>
+        <v>20.23</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4836,16 +4836,16 @@
         <v>29</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>13.94</v>
+        <v>15.16</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4865,16 +4865,16 @@
         <v>30</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>14.35</v>
+        <v>14.94</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4885,25 +4885,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>918</v>
+        <v>291</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>30.6</v>
+        <v>9.7</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4914,25 +4914,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>277</v>
+        <v>979</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>9.23</v>
+        <v>32.63</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4949,19 +4949,19 @@
         <v>26</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>638</v>
+        <v>807</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>24.54</v>
+        <v>31.04</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4981,16 +4981,16 @@
         <v>26</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>13.42</v>
+        <v>14.15</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5001,25 +5001,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>448</v>
+        <v>692</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>17.92</v>
+        <v>26.62</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5033,22 +5033,22 @@
         <v>36</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1689</v>
+        <v>481</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>70.38</v>
+        <v>19.24</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5059,25 +5059,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>418</v>
+        <v>1759</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>17.42</v>
+        <v>73.29</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5097,16 +5097,16 @@
         <v>24</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>557</v>
+        <v>441</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>23.21</v>
+        <v>18.38</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5123,19 +5123,19 @@
         <v>24</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>749</v>
+        <v>586</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>31.21</v>
+        <v>24.42</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5155,16 +5155,16 @@
         <v>23</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>21.26</v>
+        <v>22.96</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5184,16 +5184,16 @@
         <v>21</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>20</v>
+        <v>21.59</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5213,16 +5213,16 @@
         <v>20</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>20</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>34.65</v>
+        <v>36.65</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5242,16 +5242,16 @@
         <v>19</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>7.68</v>
+        <v>8.21</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5271,16 +5271,16 @@
         <v>17</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>9.61</v>
+        <v>10.17</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5300,16 +5300,16 @@
         <v>17</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>11</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>14.28</v>
+        <v>15.5</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5320,25 +5320,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>18.47</v>
+        <v>14.65</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5349,25 +5349,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>13.82</v>
+        <v>19.82</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5387,16 +5387,16 @@
         <v>16</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>31.29</v>
+        <v>33.65</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5416,16 +5416,16 @@
         <v>15</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>23.44</v>
+        <v>24.69</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5445,16 +5445,16 @@
         <v>15</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>22</v>
+        <v>24.47</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5474,16 +5474,16 @@
         <v>14</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>19.5</v>
+        <v>22.29</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5494,25 +5494,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>5.38</v>
+        <v>21.62</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>178</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5523,25 +5523,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>20.46</v>
+        <v>5.62</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>51</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5561,16 +5561,16 @@
         <v>11</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>15.82</v>
+        <v>17</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5590,16 +5590,16 @@
         <v>11</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>13.73</v>
+        <v>15</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5610,7 +5610,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>11</v>
@@ -5619,16 +5619,16 @@
         <v>11</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>655</v>
+        <v>797</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>59.55</v>
+        <v>72.45</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5639,7 +5639,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>11</v>
@@ -5648,16 +5648,16 @@
         <v>11</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>71</v>
+        <v>62.91</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5668,7 +5668,7 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>10</v>
@@ -5677,16 +5677,16 @@
         <v>10</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>29</v>
+        <v>18.3</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>39</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5697,7 +5697,7 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>10</v>
@@ -5706,16 +5706,16 @@
         <v>10</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>11.8</v>
+        <v>31.9</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5726,25 +5726,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>123</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>12.3</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5755,25 +5755,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>17.3</v>
+        <v>29.11</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>128</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5784,7 +5784,7 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>9</v>
@@ -5793,16 +5793,16 @@
         <v>9</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>248</v>
+        <v>975</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>27.56</v>
+        <v>108.33</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5822,16 +5822,16 @@
         <v>8</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>23.67</v>
+        <v>24.89</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5842,7 +5842,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>9</v>
@@ -5851,16 +5851,16 @@
         <v>9</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>921</v>
+        <v>128</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>102.33</v>
+        <v>14.22</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5877,19 +5877,19 @@
         <v>8</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>41.88</v>
+        <v>12.5</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5906,19 +5906,19 @@
         <v>8</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>12</v>
+        <v>44.13</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5947,7 +5947,7 @@
         <v>6.71</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5967,16 +5967,16 @@
         <v>5</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>5.67</v>
+        <v>6</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5996,16 +5996,16 @@
         <v>6</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>13</v>
+        <v>14.83</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6025,16 +6025,16 @@
         <v>6</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>65.33</v>
+        <v>80.5</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6045,7 +6045,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>5</v>
@@ -6054,16 +6054,16 @@
         <v>5</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>56.2</v>
+        <v>41.2</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6083,16 +6083,16 @@
         <v>5</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G182" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>46.2</v>
+        <v>47.8</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6109,19 +6109,19 @@
         <v>5</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>27.6</v>
+        <v>58</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6132,25 +6132,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>12.8</v>
+        <v>46.6</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6161,25 +6161,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>38.2</v>
+        <v>28</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6190,25 +6190,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6219,7 +6219,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>5</v>
@@ -6228,16 +6228,16 @@
         <v>5</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>25.8</v>
+        <v>13</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6257,16 +6257,16 @@
         <v>4</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>41.5</v>
+        <v>3</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6277,7 +6277,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
@@ -6286,16 +6286,16 @@
         <v>4</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>20</v>
+        <v>8.75</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6306,7 +6306,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>4</v>
@@ -6315,16 +6315,16 @@
         <v>4</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>42.25</v>
+        <v>20.25</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6335,7 +6335,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>4</v>
@@ -6344,16 +6344,16 @@
         <v>4</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6364,7 +6364,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>4</v>
@@ -6373,16 +6373,16 @@
         <v>4</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>8.25</v>
+        <v>43.5</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6393,7 +6393,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>4</v>
@@ -6402,16 +6402,16 @@
         <v>4</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>4.75</v>
+        <v>27.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6422,7 +6422,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>4</v>
@@ -6431,16 +6431,16 @@
         <v>4</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>27.25</v>
+        <v>45.25</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6451,25 +6451,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>0.67</v>
+        <v>46.67</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6498,7 +6498,7 @@
         <v>9.67</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6518,16 +6518,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>45.67</v>
+        <v>41.67</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6538,7 +6538,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -6547,16 +6547,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>22</v>
+        <v>18.33</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6567,7 +6567,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>3</v>
@@ -6576,16 +6576,16 @@
         <v>3</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>17</v>
+        <v>33.33</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6596,25 +6596,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>32.33</v>
+        <v>0.67</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6625,7 +6625,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>3</v>
@@ -6634,16 +6634,16 @@
         <v>3</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>40</v>
+        <v>24.67</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6654,25 +6654,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6683,7 +6683,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6692,16 +6692,16 @@
         <v>2</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6712,7 +6712,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
@@ -6721,16 +6721,16 @@
         <v>2</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6741,7 +6741,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>2</v>
@@ -6750,16 +6750,16 @@
         <v>2</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6770,25 +6770,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>43</v>
+        <v>23.5</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6817,7 +6817,7 @@
         <v>15.5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6846,7 +6846,7 @@
         <v>2</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6857,7 +6857,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>1</v>
@@ -6866,16 +6866,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6886,7 +6886,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6895,16 +6895,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6915,25 +6915,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6944,7 +6944,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>1</v>
@@ -6953,16 +6953,16 @@
         <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6973,25 +6973,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7011,16 +7011,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7040,16 +7040,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7060,7 +7060,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>1</v>
@@ -7069,16 +7069,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
